--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ip.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E0646-602B-46B1-A9CD-2BC9D07CF344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081ABB3-E8B1-452B-A01F-4F22BE8DD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,16 @@
     <definedName name="xRng_bb87232254c14d58bf464033222e67d3" localSheetId="4">#REF!</definedName>
     <definedName name="xRng_bb87232254c14d58bf464033222e67d3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2009,9 +2018,6 @@
     <t>NVL(M."GracePeriod",0)</t>
   </si>
   <si>
-    <t>NVL(M."AmortizedCode",'0')</t>
-  </si>
-  <si>
     <r>
       <t>MAPPING  (</t>
     </r>
@@ -2118,13 +2124,6 @@
     <t>'NTD'</t>
   </si>
   <si>
-    <t>CASE WHEN M."AcBookCode" IS NULL THEN '1'
-     WHEN M."AcBookCode" = '201' THEN '3'
-     ELSE '1'
-END</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>核准金額</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2180,12 +2179,99 @@
     <t>Usp_L7_LoanIfrs9Ip_Upd</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+      </rPr>
+      <t>NVL(M."AmortizedCode",'0')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CASE                                              
+  WHEN NVL(M."AmortizedCode",'0') ='1'    THEN '1'
+  WHEN NVL(M."AmortizedCode",'0') ='2'    THEN '4'
+  WHEN NVL(M."AmortizedCode",'0') ='3'    THEN '2'
+  WHEN NVL(M."AmortizedCode",'0') ='4'    THEN '3'
+  ELSE NVL(M."AmortizedCode",'0')                 
+END</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CASE WHEN M."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+      </rPr>
+      <t>AcSubBookCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>" IS NULL THEN '1'
+     WHEN M."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+      </rPr>
+      <t>AcSubBookCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">" = '201' THEN '3'
+     ELSE '1'
+END
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+      </rPr>
+      <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2449,6 +2535,19 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2635,7 +2734,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2918,6 +3017,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3263,8 +3368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3285,7 +3390,7 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>194</v>
@@ -3394,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3589,7 +3694,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>27</v>
@@ -3705,7 +3810,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>14</v>
       </c>
@@ -3725,8 +3830,8 @@
       <c r="G22" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="80" t="s">
-        <v>222</v>
+      <c r="H22" s="88" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
@@ -3750,7 +3855,7 @@
         <v>188</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -3774,7 +3879,7 @@
         <v>198</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -3798,7 +3903,7 @@
         <v>197</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
@@ -3820,7 +3925,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="17"/>
       <c r="H26" s="80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3844,7 +3949,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.3">
@@ -3868,7 +3973,7 @@
         <v>86</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3890,7 +3995,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="17"/>
       <c r="H29" s="80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -3914,7 +4019,7 @@
         <v>191</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3922,7 +4027,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>42</v>
@@ -3938,7 +4043,7 @@
         <v>58</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3962,7 +4067,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4010,7 +4115,7 @@
         <v>87</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -4034,7 +4139,7 @@
         <v>88</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
@@ -4058,7 +4163,7 @@
         <v>190</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -4069,7 +4174,7 @@
         <v>184</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>178</v>
@@ -4080,7 +4185,7 @@
       <c r="F37" s="25"/>
       <c r="G37" s="17"/>
       <c r="H37" s="85" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4104,10 +4209,10 @@
         <v>89</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>31</v>
       </c>
@@ -4124,11 +4229,11 @@
         <v>1</v>
       </c>
       <c r="F39" s="21"/>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="89" t="s">
         <v>90</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4152,7 +4257,7 @@
         <v>102</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -4178,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4202,7 +4307,7 @@
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4226,7 +4331,7 @@
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4250,7 +4355,7 @@
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4553,7 +4658,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H38:H41" numberStoredAsText="1"/>
+    <ignoredError sqref="H38 H40:H41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4597,7 +4702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4622,10 +4727,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>193</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ip.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ip.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081ABB3-E8B1-452B-A01F-4F22BE8DD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C737632B-D704-46C5-9422-C2474E3D86F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,10 +318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>作為群組分類。Ex:1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>原始鑑價金額</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -416,37 +412,6 @@
   </si>
   <si>
     <t>法拍及火險費用(交易幣)</t>
-  </si>
-  <si>
-    <t>至小數點後第6位。例如，利率為2.12%，則本欄位值表示0.021200。契約是階梯式...etc,抓取第一年的合約利率(不管加碼利率)(ex:第一年1.4%，第二年1.5%，則本欄位填入1.4%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A=臺北市
-B=新北市
-C=桃園市
-D=台中市
-E=台南市
-F=高雄市
-G=其他(基隆市、新竹縣、新竹市、苗栗縣、彰化縣、南投縣、雲林縣、嘉義縣、嘉義市、屏東縣、宜蘭縣、花蓮縣、臺東縣、金門縣、澎湖縣、連江縣、南海島、釣魚臺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 非循環動用  1: 循環動用
-若註記為1，且本金餘額＜核准金額，但是可動用餘額=0；需確認是否實為循環額度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=是 0=否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=台幣 2=美元 3=澳幣 4=人民幣 5=歐元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=一般 2=分紅 3=利變 4=OIU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>帳管費(交易幣)</t>
@@ -1838,44 +1803,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>會計日當時契約當時還款方式
-1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>按期繳息(到期還本)；
-2=平均攤還本息；
-3=平均攤還本金；
-4=到期繳息還本</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計日當時契約當時利率調整方式
-1=機動；
-2=固定；
-3=固定階梯；
-4=浮動階梯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>契約當時還款方式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[額度首撥日]~[到期日]轉成幾年幾月幾天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=企業戶
-2=個人戶
-自然人採用企金自然人評等模型者，應歸類為企業戶</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1959,11 +1891,6 @@
   </si>
   <si>
     <t>已核撥記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=未核撥 1=已核撥
-供產出媒體檔排序用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2264,6 +2191,89 @@
       <t>00A:傳統帳冊
 201:利變年金帳冊</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未核撥
+1:已核撥
+供產出媒體檔排序用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至小數點後第6位。例如，利率為2.12%，則本欄位值表示0.021200。契約是階梯式...etc,抓取第一年的合約利率(不管加碼利率)(ex：第一年1.4%，第二年1.5%，則本欄位填入1.4%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>會計日當時契約當時還款方式
+1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按期繳息(到期還本)
+2:平均攤還本息
+3:平均攤還本金
+4:到期繳息還本</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日當時契約當時利率調整方式
+1:機動
+2:固定
+3:固定階梯
+4:浮動階梯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:臺北市
+B:新北市
+C:桃園市
+D:台中市
+E:台南市
+F:高雄市
+G:其他(基隆市、新竹縣、新竹市、苗栗縣、彰化縣、南投縣、雲林縣、嘉義縣、嘉義市、屏東縣、宜蘭縣、花蓮縣、臺東縣、金門縣、澎湖縣、連江縣、南海島、釣魚臺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶
+自然人採用企金自然人評等模型者，應歸類為企業戶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為群組分類。Ex：1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非循環動用
+1:循環動用
+若註記為1，且本金餘額＜核准金額，但是可動用餘額=0；需確認是否實為循環額度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是
+0:否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:台幣
+2:美元
+3:澳幣
+4:人民幣
+5:歐元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一般
+2:分紅
+3:利變
+4:OIU</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3012,17 +3022,17 @@
     <xf numFmtId="49" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3368,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3385,15 +3395,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="8" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="24"/>
@@ -3401,8 +3411,8 @@
       <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
@@ -3415,12 +3425,12 @@
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="22" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="19"/>
@@ -3429,10 +3439,10 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="19"/>
@@ -3441,10 +3451,10 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="19"/>
@@ -3453,10 +3463,10 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="19"/>
@@ -3465,10 +3475,10 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="19"/>
@@ -3499,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3507,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>29</v>
@@ -3521,7 +3531,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="17"/>
       <c r="H9" s="80" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3529,7 +3539,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>24</v>
@@ -3542,10 +3552,10 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3556,7 +3566,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>28</v>
@@ -3567,7 +3577,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="17"/>
       <c r="H11" s="80" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3575,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>25</v>
@@ -3589,7 +3599,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="17"/>
       <c r="H12" s="80" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3603,7 +3613,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E13" s="21">
         <v>7</v>
@@ -3611,18 +3621,18 @@
       <c r="F13" s="21"/>
       <c r="G13" s="17"/>
       <c r="H13" s="80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>23</v>
@@ -3632,10 +3642,10 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="77" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="H14" s="80" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3643,10 +3653,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>37</v>
@@ -3656,10 +3666,10 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3670,7 +3680,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>37</v>
@@ -3680,10 +3690,10 @@
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H16" s="80" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3694,7 +3704,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>27</v>
@@ -3709,7 +3719,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3733,7 +3743,7 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="80" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3741,10 +3751,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>27</v>
@@ -3757,7 +3767,7 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="80" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -3780,10 +3790,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -3807,7 +3817,7 @@
         <v>57</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
@@ -3815,10 +3825,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>3</v>
@@ -3828,10 +3838,10 @@
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="88" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
@@ -3852,10 +3862,10 @@
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="17" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -3876,10 +3886,10 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -3890,7 +3900,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>27</v>
@@ -3900,10 +3910,10 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
@@ -3925,7 +3935,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="17"/>
       <c r="H26" s="80" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3933,7 +3943,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>40</v>
@@ -3949,7 +3959,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="80" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.3">
@@ -3957,10 +3967,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>3</v>
@@ -3970,10 +3980,10 @@
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="18" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3981,7 +3991,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>41</v>
@@ -3995,7 +4005,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="17"/>
       <c r="H29" s="80" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -4016,10 +4026,10 @@
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="17" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -4027,7 +4037,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>42</v>
@@ -4040,10 +4050,10 @@
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="18" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4051,10 +4061,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>27</v>
@@ -4067,7 +4077,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="83" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4075,10 +4085,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>27</v>
@@ -4091,18 +4101,18 @@
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="80" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>3</v>
@@ -4112,21 +4122,21 @@
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="17" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>3</v>
@@ -4136,10 +4146,10 @@
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="17" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="H35" s="80" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
@@ -4147,10 +4157,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>3</v>
@@ -4160,10 +4170,10 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -4171,13 +4181,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E37" s="21">
         <v>11</v>
@@ -4185,18 +4195,18 @@
       <c r="F37" s="25"/>
       <c r="G37" s="17"/>
       <c r="H37" s="85" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>27</v>
@@ -4206,10 +4216,10 @@
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="17" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
@@ -4217,10 +4227,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>3</v>
@@ -4229,11 +4239,11 @@
         <v>1</v>
       </c>
       <c r="F39" s="21"/>
-      <c r="G39" s="89" t="s">
-        <v>90</v>
+      <c r="G39" s="87" t="s">
+        <v>249</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4241,10 +4251,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>3</v>
@@ -4254,10 +4264,10 @@
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -4265,10 +4275,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>27</v>
@@ -4283,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4291,10 +4301,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>27</v>
@@ -4307,7 +4317,7 @@
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="80" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4315,10 +4325,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>27</v>
@@ -4331,7 +4341,7 @@
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="80" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4339,10 +4349,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>27</v>
@@ -4355,7 +4365,7 @@
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="80" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4366,7 +4376,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>11</v>
@@ -4384,7 +4394,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>3</v>
@@ -4404,7 +4414,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>11</v>
@@ -4422,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>3</v>
@@ -4716,24 +4726,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4758,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -5262,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
@@ -5270,7 +5280,7 @@
     </row>
     <row r="2" spans="1:9" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -5278,30 +5288,30 @@
     </row>
     <row r="3" spans="1:9" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:9" s="74" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F5" s="73"/>
     </row>
@@ -5310,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="65"/>
@@ -5322,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="65"/>
@@ -5334,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
@@ -5346,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
@@ -5358,12 +5368,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="65"/>
       <c r="E10" s="47" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F10" s="73"/>
     </row>
@@ -5372,16 +5382,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F11" s="73"/>
     </row>
@@ -5390,13 +5400,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="73"/>
@@ -5406,11 +5416,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E13" s="66"/>
       <c r="F13" s="73"/>
@@ -5420,11 +5430,11 @@
         <v>9</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="73"/>
@@ -5434,10 +5444,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="66"/>
@@ -5448,16 +5458,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="66"/>
       <c r="F16" s="73"/>
       <c r="I16" s="74" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="74" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -5465,10 +5475,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="66"/>
@@ -5479,10 +5489,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
@@ -5492,10 +5502,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
@@ -5506,10 +5516,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D20" s="65"/>
       <c r="E20" s="66"/>
@@ -5520,12 +5530,12 @@
         <v>16</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="65"/>
       <c r="E21" s="66" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F21" s="73"/>
     </row>
@@ -5534,14 +5544,14 @@
         <v>17</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" s="66" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F22" s="73"/>
     </row>
@@ -5550,10 +5560,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" s="66"/>
@@ -5564,12 +5574,12 @@
         <v>19</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="65"/>
       <c r="E24" s="66" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F24" s="73"/>
     </row>
@@ -5578,14 +5588,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D25" s="65"/>
       <c r="E25" s="41" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F25" s="73"/>
     </row>
@@ -5594,13 +5604,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="73"/>
@@ -5610,11 +5620,11 @@
         <v>22</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C27" s="70"/>
       <c r="D27" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="66"/>
     </row>
@@ -5623,11 +5633,11 @@
         <v>23</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="71"/>
       <c r="F28" s="73"/>
@@ -5637,10 +5647,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D29" s="65"/>
       <c r="E29" s="66"/>
@@ -5651,10 +5661,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D30" s="65"/>
       <c r="E30" s="66"/>
@@ -5665,7 +5675,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="36"/>
@@ -5676,7 +5686,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="36"/>
@@ -5687,13 +5697,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E33" s="37"/>
     </row>
@@ -5702,13 +5712,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E34" s="37"/>
     </row>
@@ -5717,13 +5727,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E35" s="42"/>
     </row>
@@ -5732,12 +5742,12 @@
         <v>31</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="36"/>
       <c r="E36" s="44" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -5745,12 +5755,12 @@
         <v>32</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="36"/>
       <c r="E37" s="44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
@@ -5758,12 +5768,12 @@
         <v>33</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="36"/>
       <c r="E38" s="44" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
@@ -5771,12 +5781,12 @@
         <v>34</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="36"/>
       <c r="E39" s="44" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
